--- a/optimisation_result.xlsx
+++ b/optimisation_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -25,13 +25,7 @@
     <t>buy_volume</t>
   </si>
   <si>
-    <t>charge_volume</t>
-  </si>
-  <si>
     <t>sell_volume</t>
-  </si>
-  <si>
-    <t>discharge_volumebattery_soc</t>
   </si>
   <si>
     <t>battery_soc</t>
@@ -405,13 +399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,14 +430,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>17956</v>
       </c>
@@ -456,23 +444,23 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>17957</v>
       </c>
@@ -483,25 +471,25 @@
         <v>95.09</v>
       </c>
       <c r="D3">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0.25</v>
       </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="G3">
+        <v>24.76302083333337</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>23.7725</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>-23.7725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-24.76302083333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>17958</v>
       </c>
@@ -512,25 +500,25 @@
         <v>101.1</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>26.32812500000004</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>25.275</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>-25.275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-26.32812500000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>17959</v>
       </c>
@@ -541,25 +529,25 @@
         <v>92</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>23.95833333333336</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-23.95833333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>17960</v>
       </c>
@@ -572,23 +560,23 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6">
+        <v>0.75</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>17961</v>
       </c>
@@ -599,25 +587,25 @@
         <v>90.09999999999999</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>23.4635416666667</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>22.525</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>-22.525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-23.4635416666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>17962</v>
       </c>
@@ -628,25 +616,25 @@
         <v>101.78</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="G8">
+        <v>26.50520833333337</v>
       </c>
       <c r="H8">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>25.445</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>-25.445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-26.50520833333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>17963</v>
       </c>
@@ -659,23 +647,23 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>26.5494791666667</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>25.4875</v>
-      </c>
-      <c r="K9">
-        <v>25.4875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>26.5494791666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>17964</v>
       </c>
@@ -686,25 +674,25 @@
         <v>85.09</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="G10">
+        <v>22.1588541666667</v>
       </c>
       <c r="H10">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>21.2725</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>-21.2725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-22.1588541666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>17965</v>
       </c>
@@ -715,25 +703,25 @@
         <v>90.09</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="G11">
+        <v>23.46093750000003</v>
       </c>
       <c r="H11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>22.5225</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>-22.5225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-23.46093750000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>17966</v>
       </c>
@@ -744,25 +732,25 @@
         <v>90.09999999999999</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="G12">
+        <v>23.4635416666667</v>
       </c>
       <c r="H12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>22.525</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>-22.525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-23.4635416666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>17967</v>
       </c>
@@ -775,23 +763,23 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F13">
-        <v>0.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1.5</v>
+        <v>33.83593750000005</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>32.4825</v>
-      </c>
-      <c r="K13">
-        <v>32.4825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>33.83593750000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>17968</v>
       </c>
@@ -802,25 +790,25 @@
         <v>55.06</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="G14">
+        <v>14.33854166666669</v>
       </c>
       <c r="H14">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.765</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>-13.765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>-14.33854166666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>17969</v>
       </c>
@@ -831,25 +819,25 @@
         <v>90.01000000000001</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>23.4401041666667</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>22.5025</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>-22.5025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>-23.4401041666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>17970</v>
       </c>
@@ -862,23 +850,23 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>17971</v>
       </c>
@@ -891,23 +879,23 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F17">
-        <v>0.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1.75</v>
+        <v>37.75781250000006</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>36.2475</v>
-      </c>
-      <c r="K17">
-        <v>36.2475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>37.75781250000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17972</v>
       </c>
@@ -918,25 +906,25 @@
         <v>85.08</v>
       </c>
       <c r="D18">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>22.15625000000003</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>21.27</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>-21.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>-22.15625000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17973</v>
       </c>
@@ -949,23 +937,23 @@
       <c r="D19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F19">
-        <v>0.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1.75</v>
+        <v>34.40104166666671</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>33.025</v>
-      </c>
-      <c r="K19">
-        <v>33.025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>34.40104166666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>17974</v>
       </c>
@@ -978,23 +966,23 @@
       <c r="D20">
         <v>0</v>
       </c>
+      <c r="E20">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F20">
-        <v>0.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1.5</v>
+        <v>39.03906250000005</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>37.4775</v>
-      </c>
-      <c r="K20">
-        <v>37.4775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>39.03906250000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>17975</v>
       </c>
@@ -1007,23 +995,23 @@
       <c r="D21">
         <v>0</v>
       </c>
+      <c r="E21">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F21">
-        <v>0.25</v>
+        <v>1.25</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.25</v>
+        <v>40.34375000000005</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>38.73</v>
-      </c>
-      <c r="K21">
-        <v>38.73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>40.34375000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>17976</v>
       </c>
@@ -1036,23 +1024,23 @@
       <c r="D22">
         <v>0</v>
       </c>
+      <c r="E22">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F22">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>37.78385416666672</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>36.2725</v>
-      </c>
-      <c r="K22">
-        <v>36.2725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>37.78385416666672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>17977</v>
       </c>
@@ -1065,23 +1053,23 @@
       <c r="D23">
         <v>0</v>
       </c>
+      <c r="E23">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F23">
-        <v>0.25</v>
+        <v>0.75</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.75</v>
+        <v>37.87239583333339</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>36.3575</v>
-      </c>
-      <c r="K23">
-        <v>36.3575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>37.87239583333339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>17978</v>
       </c>
@@ -1094,23 +1082,23 @@
       <c r="D24">
         <v>0</v>
       </c>
+      <c r="E24">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F24">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>37.74218750000005</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>36.2325</v>
-      </c>
-      <c r="K24">
-        <v>36.2325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>37.74218750000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>17979</v>
       </c>
@@ -1123,23 +1111,23 @@
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F25">
         <v>0.25</v>
       </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
       <c r="H25">
-        <v>0.25</v>
+        <v>34.97916666666671</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>33.58</v>
-      </c>
-      <c r="K25">
-        <v>33.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>34.97916666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>17980</v>
       </c>
@@ -1152,23 +1140,23 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="E26">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F26">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>54.27343750000007</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>52.1025</v>
-      </c>
-      <c r="K26">
-        <v>52.1025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>54.27343750000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>17981</v>
       </c>
@@ -1181,23 +1169,23 @@
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>17982</v>
       </c>
@@ -1208,25 +1196,25 @@
         <v>90.08</v>
       </c>
       <c r="D28">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>0.25</v>
       </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="G28">
+        <v>23.45833333333336</v>
       </c>
       <c r="H28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>22.52</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>-22.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-23.45833333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>17983</v>
       </c>
@@ -1237,25 +1225,25 @@
         <v>76.09999999999999</v>
       </c>
       <c r="D29">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>19.81770833333336</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>19.025</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>-19.025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>-19.81770833333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>17984</v>
       </c>
@@ -1268,23 +1256,23 @@
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="E30">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F30">
         <v>0.25</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
       <c r="H30">
-        <v>0.25</v>
+        <v>37.78125000000006</v>
       </c>
       <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>36.27</v>
-      </c>
-      <c r="K30">
-        <v>36.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>37.78125000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>17985</v>
       </c>
@@ -1297,23 +1285,23 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="E31">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F31">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>29.83854166666671</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>28.645</v>
-      </c>
-      <c r="K31">
-        <v>28.645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>29.83854166666671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>17986</v>
       </c>
@@ -1326,23 +1314,23 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>17987</v>
       </c>
@@ -1353,25 +1341,25 @@
         <v>79.95999999999999</v>
       </c>
       <c r="D33">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>0.25</v>
       </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="G33">
+        <v>20.82291666666669</v>
       </c>
       <c r="H33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>19.99</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>-19.99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>-20.82291666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>17988</v>
       </c>
@@ -1384,23 +1372,23 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F34">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>28.66927083333337</v>
       </c>
       <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>27.5225</v>
-      </c>
-      <c r="K34">
-        <v>27.5225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>28.66927083333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>17989</v>
       </c>
@@ -1411,25 +1399,25 @@
         <v>91.59</v>
       </c>
       <c r="D35">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0.25</v>
       </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="G35">
+        <v>23.85156250000003</v>
       </c>
       <c r="H35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>22.8975</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>-22.8975</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>-23.85156250000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>17990</v>
       </c>
@@ -1442,23 +1430,23 @@
       <c r="D36">
         <v>0</v>
       </c>
+      <c r="E36">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F36">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>26.0182291666667</v>
       </c>
       <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>24.9775</v>
-      </c>
-      <c r="K36">
-        <v>24.9775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>26.0182291666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>17991</v>
       </c>
@@ -1469,25 +1457,25 @@
         <v>84.92</v>
       </c>
       <c r="D37">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0.25</v>
       </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="G37">
+        <v>22.11458333333336</v>
       </c>
       <c r="H37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>21.23</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>-21.23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>-22.11458333333336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>17992</v>
       </c>
@@ -1498,25 +1486,25 @@
         <v>90.09999999999999</v>
       </c>
       <c r="D38">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>23.4635416666667</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>22.525</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>-22.525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>-23.4635416666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>17993</v>
       </c>
@@ -1529,23 +1517,23 @@
       <c r="D39">
         <v>0</v>
       </c>
+      <c r="E39">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F39">
         <v>0.25</v>
       </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
       <c r="H39">
-        <v>0.25</v>
+        <v>25.8619791666667</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>24.8275</v>
-      </c>
-      <c r="K39">
-        <v>24.8275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>25.8619791666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>17994</v>
       </c>
@@ -1558,23 +1546,23 @@
       <c r="D40">
         <v>0</v>
       </c>
+      <c r="E40">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F40">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>24.71614583333336</v>
       </c>
       <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>23.7275</v>
-      </c>
-      <c r="K40">
-        <v>23.7275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>24.71614583333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>17995</v>
       </c>
@@ -1585,25 +1573,25 @@
         <v>84.91</v>
       </c>
       <c r="D41">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>0.25</v>
       </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="G41">
+        <v>22.1119791666667</v>
       </c>
       <c r="H41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>21.2275</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>-21.2275</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>-22.1119791666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>17996</v>
       </c>
@@ -1616,23 +1604,23 @@
       <c r="D42">
         <v>0</v>
       </c>
+      <c r="E42">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F42">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>27.5885416666667</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>26.485</v>
-      </c>
-      <c r="K42">
-        <v>26.485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>27.5885416666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>17997</v>
       </c>
@@ -1643,25 +1631,25 @@
         <v>65.09999999999999</v>
       </c>
       <c r="D43">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>0.25</v>
       </c>
-      <c r="F43">
-        <v>0</v>
+      <c r="G43">
+        <v>16.95312500000002</v>
       </c>
       <c r="H43">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>16.275</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>-16.275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>-16.95312500000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>17998</v>
       </c>
@@ -1674,23 +1662,23 @@
       <c r="D44">
         <v>0</v>
       </c>
+      <c r="E44">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F44">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>23.41145833333337</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>22.475</v>
-      </c>
-      <c r="K44">
-        <v>22.475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>23.41145833333337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>17999</v>
       </c>
@@ -1701,25 +1689,25 @@
         <v>79.91</v>
       </c>
       <c r="D45">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>0.25</v>
       </c>
-      <c r="F45">
-        <v>0</v>
+      <c r="G45">
+        <v>20.80989583333336</v>
       </c>
       <c r="H45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>19.9775</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>-19.9775</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>-20.80989583333336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>18000</v>
       </c>
@@ -1732,23 +1720,23 @@
       <c r="D46">
         <v>0</v>
       </c>
+      <c r="E46">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F46">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>24.71875000000004</v>
       </c>
       <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>23.73</v>
-      </c>
-      <c r="K46">
-        <v>23.73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>24.71875000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>18001</v>
       </c>
@@ -1761,23 +1749,23 @@
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
       <c r="F47">
         <v>0</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>18002</v>
       </c>
@@ -1788,25 +1776,25 @@
         <v>66.09999999999999</v>
       </c>
       <c r="D48">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>0.25</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="G48">
+        <v>17.21354166666669</v>
       </c>
       <c r="H48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>16.525</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>-16.525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>-17.21354166666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>18003</v>
       </c>
@@ -1817,25 +1805,25 @@
         <v>55.1</v>
       </c>
       <c r="D49">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>14.34895833333335</v>
       </c>
       <c r="H49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>13.775</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>-13.775</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>-14.34895833333335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>18004</v>
       </c>
@@ -1846,25 +1834,25 @@
         <v>79.91</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="G50">
+        <v>20.80989583333336</v>
       </c>
       <c r="H50">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>19.9775</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>-19.9775</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>-20.80989583333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>18005</v>
       </c>
@@ -1875,25 +1863,25 @@
         <v>74.20999999999999</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>19.32552083333336</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>18.5525</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>-18.5525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>-19.32552083333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>18006</v>
       </c>
@@ -1904,25 +1892,25 @@
         <v>60.1</v>
       </c>
       <c r="D52">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="G52">
+        <v>15.65104166666669</v>
       </c>
       <c r="H52">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>15.025</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>-15.025</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>-15.65104166666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>18007</v>
       </c>
@@ -1935,23 +1923,23 @@
       <c r="D53">
         <v>0</v>
       </c>
+      <c r="E53">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F53">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>21.55468750000003</v>
       </c>
       <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>20.6925</v>
-      </c>
-      <c r="K53">
-        <v>20.6925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>21.55468750000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>18008</v>
       </c>
@@ -1962,25 +1950,25 @@
         <v>69.91</v>
       </c>
       <c r="D54">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.25</v>
+      </c>
+      <c r="G54">
+        <v>18.20572916666669</v>
       </c>
       <c r="H54">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>17.4775</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>-17.4775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>-18.20572916666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>18009</v>
       </c>
@@ -1991,25 +1979,25 @@
         <v>81.65000000000001</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="G55">
+        <v>21.26302083333336</v>
       </c>
       <c r="H55">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>20.4125</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>-20.4125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>-21.26302083333336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>18010</v>
       </c>
@@ -2020,25 +2008,25 @@
         <v>65.09999999999999</v>
       </c>
       <c r="D56">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="G56">
+        <v>16.95312500000002</v>
       </c>
       <c r="H56">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>16.275</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>-16.275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>-16.95312500000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>18011</v>
       </c>
@@ -2051,23 +2039,23 @@
       <c r="D57">
         <v>0</v>
       </c>
+      <c r="E57">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F57">
-        <v>0.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1.5</v>
+        <v>23.46093750000003</v>
       </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>22.5225</v>
-      </c>
-      <c r="K57">
-        <v>22.5225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>23.46093750000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>18012</v>
       </c>
@@ -2078,25 +2066,25 @@
         <v>59.9</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="G58">
+        <v>15.59895833333335</v>
       </c>
       <c r="H58">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>14.975</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>-14.975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>-15.59895833333335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>18013</v>
       </c>
@@ -2107,25 +2095,25 @@
         <v>81.28</v>
       </c>
       <c r="D59">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>21.1666666666667</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>20.32</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>-20.32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>-21.1666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>18014</v>
       </c>
@@ -2136,25 +2124,25 @@
         <v>85.09</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E60">
+        <v>0.260416666666667</v>
       </c>
       <c r="F60">
-        <v>0.25</v>
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>22.1588541666667</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>22.1588541666667</v>
       </c>
       <c r="I60">
-        <v>21.2725</v>
-      </c>
-      <c r="J60">
-        <v>21.2725</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>18015</v>
       </c>
@@ -2167,23 +2155,23 @@
       <c r="D61">
         <v>0</v>
       </c>
+      <c r="E61">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F61">
-        <v>0.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1.75</v>
+        <v>31.27083333333337</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>30.02</v>
-      </c>
-      <c r="K61">
-        <v>30.02</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>31.27083333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>18016</v>
       </c>
@@ -2194,25 +2182,25 @@
         <v>44.58</v>
       </c>
       <c r="D62">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>11.60937500000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>11.145</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>-11.145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>-11.60937500000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>18017</v>
       </c>
@@ -2223,25 +2211,25 @@
         <v>94.64</v>
       </c>
       <c r="D63">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E63">
+        <v>0.260416666666667</v>
       </c>
       <c r="F63">
-        <v>0.25</v>
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>24.64583333333337</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>24.64583333333337</v>
       </c>
       <c r="I63">
-        <v>23.66</v>
-      </c>
-      <c r="J63">
-        <v>23.66</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>18018</v>
       </c>
@@ -2254,23 +2242,23 @@
       <c r="D64">
         <v>0</v>
       </c>
+      <c r="E64">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F64">
-        <v>0.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1.75</v>
+        <v>28.6666666666667</v>
       </c>
       <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>27.52</v>
-      </c>
-      <c r="K64">
-        <v>27.52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>28.6666666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>18019</v>
       </c>
@@ -2283,23 +2271,23 @@
       <c r="D65">
         <v>0</v>
       </c>
+      <c r="E65">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F65">
-        <v>0.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1.5</v>
+        <v>39.08072916666672</v>
       </c>
       <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>37.5175</v>
-      </c>
-      <c r="K65">
-        <v>37.5175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>39.08072916666672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>18020</v>
       </c>
@@ -2310,25 +2298,25 @@
         <v>67.45999999999999</v>
       </c>
       <c r="D66">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="G66">
+        <v>17.56770833333336</v>
       </c>
       <c r="H66">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>16.865</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>-16.865</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>-17.56770833333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>18021</v>
       </c>
@@ -2339,25 +2327,25 @@
         <v>100.1</v>
       </c>
       <c r="D67">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>26.06770833333337</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>25.025</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>-25.025</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>-26.06770833333337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>18022</v>
       </c>
@@ -2370,23 +2358,23 @@
       <c r="D68">
         <v>0</v>
       </c>
+      <c r="E68">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F68">
-        <v>0.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1.75</v>
+        <v>35.17447916666671</v>
       </c>
       <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>33.7675</v>
-      </c>
-      <c r="K68">
-        <v>33.7675</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>35.17447916666671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>18023</v>
       </c>
@@ -2399,23 +2387,23 @@
       <c r="D69">
         <v>0</v>
       </c>
+      <c r="E69">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F69">
-        <v>0.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.5</v>
+        <v>42.98437500000006</v>
       </c>
       <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>41.265</v>
-      </c>
-      <c r="K69">
-        <v>41.265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>42.98437500000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>18024</v>
       </c>
@@ -2426,25 +2414,25 @@
         <v>96.08</v>
       </c>
       <c r="D70">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.75</v>
+      </c>
+      <c r="G70">
+        <v>25.02083333333337</v>
       </c>
       <c r="H70">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>24.02</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>-24.02</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>-25.02083333333337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>18025</v>
       </c>
@@ -2455,25 +2443,25 @@
         <v>125.03</v>
       </c>
       <c r="D71">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>32.55989583333338</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>31.2575</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>-31.2575</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>-32.55989583333338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>18026</v>
       </c>
@@ -2486,23 +2474,23 @@
       <c r="D72">
         <v>0</v>
       </c>
+      <c r="E72">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F72">
-        <v>0.25</v>
+        <v>1.75</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1.75</v>
+        <v>35.18229166666671</v>
       </c>
       <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>33.775</v>
-      </c>
-      <c r="K72">
-        <v>33.775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>35.18229166666671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>18027</v>
       </c>
@@ -2515,23 +2503,23 @@
       <c r="D73">
         <v>0</v>
       </c>
+      <c r="E73">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F73">
-        <v>0.25</v>
+        <v>1.5</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1.5</v>
+        <v>53.02343750000008</v>
       </c>
       <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>50.9025</v>
-      </c>
-      <c r="K73">
-        <v>50.9025</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>53.02343750000008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>18028</v>
       </c>
@@ -2544,23 +2532,23 @@
       <c r="D74">
         <v>0</v>
       </c>
+      <c r="E74">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F74">
-        <v>0.25</v>
+        <v>1.25</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1.25</v>
+        <v>40.77864583333339</v>
       </c>
       <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>39.1475</v>
-      </c>
-      <c r="K74">
-        <v>39.1475</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>40.77864583333339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>18029</v>
       </c>
@@ -2573,23 +2561,23 @@
       <c r="D75">
         <v>0</v>
       </c>
+      <c r="E75">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F75">
-        <v>0.25</v>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>44.26302083333339</v>
       </c>
       <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>42.4925</v>
-      </c>
-      <c r="K75">
-        <v>42.4925</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>44.26302083333339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>18030</v>
       </c>
@@ -2602,23 +2590,23 @@
       <c r="D76">
         <v>0</v>
       </c>
+      <c r="E76">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F76">
-        <v>0.25</v>
+        <v>0.75</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0.75</v>
+        <v>41.64843750000006</v>
       </c>
       <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>39.9825</v>
-      </c>
-      <c r="K76">
-        <v>39.9825</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>41.64843750000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>18031</v>
       </c>
@@ -2631,23 +2619,23 @@
       <c r="D77">
         <v>0</v>
       </c>
+      <c r="E77">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F77">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0.5</v>
+        <v>40.34635416666672</v>
       </c>
       <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>38.7325</v>
-      </c>
-      <c r="K77">
-        <v>38.7325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>40.34635416666672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>18032</v>
       </c>
@@ -2660,23 +2648,23 @@
       <c r="D78">
         <v>0</v>
       </c>
+      <c r="E78">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F78">
         <v>0.25</v>
       </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
       <c r="H78">
-        <v>0.25</v>
+        <v>49.47135416666674</v>
       </c>
       <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>47.4925</v>
-      </c>
-      <c r="K78">
-        <v>47.4925</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>49.47135416666674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>18033</v>
       </c>
@@ -2689,23 +2677,23 @@
       <c r="D79">
         <v>0</v>
       </c>
+      <c r="E79">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F79">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>44.25520833333339</v>
       </c>
       <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>42.485</v>
-      </c>
-      <c r="K79">
-        <v>42.485</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>44.25520833333339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>18034</v>
       </c>
@@ -2716,25 +2704,25 @@
         <v>123.87</v>
       </c>
       <c r="D80">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>0.25</v>
       </c>
-      <c r="F80">
-        <v>0</v>
+      <c r="G80">
+        <v>32.25781250000004</v>
       </c>
       <c r="H80">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>30.9675</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>-30.9675</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>-32.25781250000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>18035</v>
       </c>
@@ -2745,25 +2733,25 @@
         <v>103.16</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G81">
+        <v>26.86458333333337</v>
       </c>
       <c r="H81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>25.79</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>-25.79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>-26.86458333333337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>18036</v>
       </c>
@@ -2776,23 +2764,23 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F82">
         <v>0.25</v>
       </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
       <c r="H82">
-        <v>0.25</v>
+        <v>49.46875000000007</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>47.49</v>
-      </c>
-      <c r="K82">
-        <v>47.49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>49.46875000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>18037</v>
       </c>
@@ -2805,23 +2793,23 @@
       <c r="D83">
         <v>0</v>
       </c>
+      <c r="E83">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F83">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>32.57031250000004</v>
       </c>
       <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>31.2675</v>
-      </c>
-      <c r="K83">
-        <v>31.2675</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>32.57031250000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>18038</v>
       </c>
@@ -2832,25 +2820,25 @@
         <v>100.04</v>
       </c>
       <c r="D84">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>0.25</v>
       </c>
-      <c r="F84">
-        <v>0</v>
+      <c r="G84">
+        <v>26.05208333333337</v>
       </c>
       <c r="H84">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>25.01</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>-25.01</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>-26.05208333333337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>18039</v>
       </c>
@@ -2861,25 +2849,25 @@
         <v>83.28</v>
       </c>
       <c r="D85">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G85">
+        <v>21.68750000000003</v>
       </c>
       <c r="H85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>20.82</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>-20.82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>-21.68750000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>18040</v>
       </c>
@@ -2892,23 +2880,23 @@
       <c r="D86">
         <v>0</v>
       </c>
+      <c r="E86">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F86">
         <v>0.25</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="H86">
-        <v>0.25</v>
+        <v>40.34635416666672</v>
       </c>
       <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>38.7325</v>
-      </c>
-      <c r="K86">
-        <v>38.7325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>40.34635416666672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>18041</v>
       </c>
@@ -2921,23 +2909,23 @@
       <c r="D87">
         <v>0</v>
       </c>
+      <c r="E87">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F87">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>28.20312500000004</v>
       </c>
       <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>27.075</v>
-      </c>
-      <c r="K87">
-        <v>27.075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>28.20312500000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>18042</v>
       </c>
@@ -2948,25 +2936,25 @@
         <v>90.08</v>
       </c>
       <c r="D88">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>0.25</v>
       </c>
-      <c r="F88">
-        <v>0</v>
+      <c r="G88">
+        <v>23.45833333333336</v>
       </c>
       <c r="H88">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>22.52</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>-22.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>-23.45833333333336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>18043</v>
       </c>
@@ -2977,25 +2965,25 @@
         <v>75.08</v>
       </c>
       <c r="D89">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G89">
+        <v>19.55208333333336</v>
       </c>
       <c r="H89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>18.77</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>-18.77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>-19.55208333333336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>18044</v>
       </c>
@@ -3008,23 +2996,23 @@
       <c r="D90">
         <v>0</v>
       </c>
+      <c r="E90">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F90">
         <v>0.25</v>
       </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
       <c r="H90">
-        <v>0.25</v>
+        <v>33.83593750000005</v>
       </c>
       <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>32.4825</v>
-      </c>
-      <c r="K90">
-        <v>32.4825</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>33.83593750000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>18045</v>
       </c>
@@ -3037,23 +3025,23 @@
       <c r="D91">
         <v>0</v>
       </c>
+      <c r="E91">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F91">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>29.92187500000004</v>
       </c>
       <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>28.725</v>
-      </c>
-      <c r="K91">
-        <v>28.725</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>29.92187500000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>18046</v>
       </c>
@@ -3064,25 +3052,25 @@
         <v>88.22</v>
       </c>
       <c r="D92">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>0.25</v>
       </c>
-      <c r="F92">
-        <v>0</v>
+      <c r="G92">
+        <v>22.97395833333336</v>
       </c>
       <c r="H92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>22.055</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>-22.055</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>-22.97395833333336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>18047</v>
       </c>
@@ -3093,25 +3081,25 @@
         <v>50.09</v>
       </c>
       <c r="D93">
-        <v>0.25</v>
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G93">
+        <v>13.04427083333335</v>
       </c>
       <c r="H93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>12.5225</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>-12.5225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>-13.04427083333335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>18048</v>
       </c>
@@ -3124,23 +3112,23 @@
       <c r="D94">
         <v>0</v>
       </c>
+      <c r="E94">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F94">
         <v>0.25</v>
       </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
       <c r="H94">
-        <v>0.25</v>
+        <v>29.92708333333337</v>
       </c>
       <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>28.73</v>
-      </c>
-      <c r="K94">
-        <v>28.73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>29.92708333333337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>18049</v>
       </c>
@@ -3153,23 +3141,23 @@
       <c r="D95">
         <v>0</v>
       </c>
+      <c r="E95">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F95">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>26.01562500000004</v>
       </c>
       <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>24.975</v>
-      </c>
-      <c r="K95">
-        <v>24.975</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>26.01562500000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>18050</v>
       </c>
@@ -3182,23 +3170,23 @@
       <c r="D96">
         <v>0</v>
       </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
       <c r="F96">
         <v>0</v>
       </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>18051</v>
       </c>
@@ -3209,25 +3197,25 @@
         <v>40.09</v>
       </c>
       <c r="D97">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>0.25</v>
       </c>
-      <c r="F97">
-        <v>0</v>
+      <c r="G97">
+        <v>10.44010416666668</v>
       </c>
       <c r="H97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>10.0225</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>-10.0225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>-10.44010416666668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>18052</v>
       </c>
@@ -3240,20 +3228,20 @@
       <c r="D98">
         <v>0</v>
       </c>
+      <c r="E98">
+        <v>0.260416666666667</v>
+      </c>
       <c r="F98">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>26.02083333333337</v>
       </c>
       <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>24.98</v>
-      </c>
-      <c r="K98">
-        <v>24.98</v>
+        <v>26.02083333333337</v>
       </c>
     </row>
   </sheetData>
